--- a/_database/agriculture_land-use_references.xlsx
+++ b/_database/agriculture_land-use_references.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crosnier/Documents/PathwayCalc/_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5979EC30-FC59-874E-B961-5D8C7DECE93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032F6B0E-3981-DE4B-9C94-F17D78EA7A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1160" yWindow="-23500" windowWidth="30240" windowHeight="17440" xr2:uid="{9AF003D9-B152-1B4E-9C13-06A4299E806A}"/>
   </bookViews>
@@ -1588,9 +1588,6 @@
     <t>Category used from FAOSTAT : Coffee and products</t>
   </si>
   <si>
-    <t>Element used : Domestic supply quantity [kt]</t>
-  </si>
-  <si>
     <t>https://www.fao.org/faostat/en/#data/GT</t>
   </si>
   <si>
@@ -3041,6 +3038,9 @@
   </si>
   <si>
     <t>All countries except Switzerland</t>
+  </si>
+  <si>
+    <t>Element used : Production quantity [kt]</t>
   </si>
 </sst>
 </file>
@@ -3471,8 +3471,8 @@
   <dimension ref="A1:H821"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A332" sqref="A332"/>
+      <pane ySplit="1" topLeftCell="A408" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D418" sqref="D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -4324,16 +4324,16 @@
         <v>82</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>672</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4341,16 +4341,16 @@
         <v>83</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4358,16 +4358,16 @@
         <v>84</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4375,10 +4375,10 @@
         <v>85</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4386,16 +4386,16 @@
         <v>86</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4403,16 +4403,16 @@
         <v>87</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4420,16 +4420,16 @@
         <v>88</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4437,16 +4437,16 @@
         <v>89</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>661</v>
-      </c>
       <c r="E46" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4454,16 +4454,16 @@
         <v>90</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4471,16 +4471,16 @@
         <v>91</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -4488,16 +4488,16 @@
         <v>92</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -4505,10 +4505,10 @@
         <v>93</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="36" x14ac:dyDescent="0.25">
@@ -4516,16 +4516,16 @@
         <v>94</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -4533,19 +4533,19 @@
         <v>95</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C52" s="3">
         <v>0</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -4967,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>73</v>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>73</v>
@@ -7768,7 +7768,7 @@
         <v>77</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -7779,7 +7779,7 @@
         <v>77</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -7790,7 +7790,7 @@
         <v>77</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -7801,7 +7801,7 @@
         <v>77</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -7812,7 +7812,7 @@
         <v>77</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -7823,7 +7823,7 @@
         <v>77</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -7834,7 +7834,7 @@
         <v>77</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -7845,7 +7845,7 @@
         <v>77</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -7856,7 +7856,7 @@
         <v>77</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -7867,7 +7867,7 @@
         <v>77</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -7878,7 +7878,7 @@
         <v>77</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -7889,7 +7889,7 @@
         <v>77</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -7900,7 +7900,7 @@
         <v>77</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -7911,7 +7911,7 @@
         <v>77</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -7922,7 +7922,7 @@
         <v>77</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -7933,7 +7933,7 @@
         <v>77</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -7944,7 +7944,7 @@
         <v>77</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -7955,7 +7955,7 @@
         <v>77</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -7973,10 +7973,10 @@
         <v>319</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -7984,10 +7984,10 @@
         <v>320</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -9795,27 +9795,27 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E363" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G363" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>77</v>
@@ -9832,7 +9832,7 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>77</v>
@@ -9849,7 +9849,7 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>77</v>
@@ -9866,7 +9866,7 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>77</v>
@@ -9886,7 +9886,7 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>77</v>
@@ -9906,13 +9906,13 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E369" s="3" t="s">
         <v>73</v>
@@ -9926,7 +9926,7 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>77</v>
@@ -9946,7 +9946,7 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>77</v>
@@ -9963,7 +9963,7 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>77</v>
@@ -9980,7 +9980,7 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>77</v>
@@ -9997,7 +9997,7 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>77</v>
@@ -10014,7 +10014,7 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>77</v>
@@ -10031,7 +10031,7 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>77</v>
@@ -10051,13 +10051,13 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E377" s="3" t="s">
         <v>73</v>
@@ -10071,13 +10071,13 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>516</v>
+        <v>1000</v>
       </c>
       <c r="E378" s="3" t="s">
         <v>73</v>
@@ -10091,13 +10091,13 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>516</v>
+        <v>1000</v>
       </c>
       <c r="E379" s="3" t="s">
         <v>73</v>
@@ -10111,13 +10111,13 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>516</v>
+        <v>1000</v>
       </c>
       <c r="E380" s="3" t="s">
         <v>73</v>
@@ -10131,13 +10131,13 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>516</v>
+        <v>1000</v>
       </c>
       <c r="E381" s="3" t="s">
         <v>73</v>
@@ -10151,13 +10151,13 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>516</v>
+        <v>1000</v>
       </c>
       <c r="E382" s="3" t="s">
         <v>73</v>
@@ -10171,13 +10171,13 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>516</v>
+        <v>1000</v>
       </c>
       <c r="E383" s="3" t="s">
         <v>73</v>
@@ -10191,13 +10191,13 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>516</v>
+        <v>1000</v>
       </c>
       <c r="E384" s="3" t="s">
         <v>73</v>
@@ -10211,13 +10211,13 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>516</v>
+        <v>1000</v>
       </c>
       <c r="E385" s="3" t="s">
         <v>73</v>
@@ -10231,13 +10231,13 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>516</v>
+        <v>1000</v>
       </c>
       <c r="E386" s="3" t="s">
         <v>73</v>
@@ -10251,13 +10251,13 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>516</v>
+        <v>1000</v>
       </c>
       <c r="E387" s="3" t="s">
         <v>73</v>
@@ -10271,13 +10271,13 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>516</v>
+        <v>1000</v>
       </c>
       <c r="E388" s="3" t="s">
         <v>73</v>
@@ -10291,13 +10291,13 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>516</v>
+        <v>1000</v>
       </c>
       <c r="E389" s="3" t="s">
         <v>73</v>
@@ -10311,13 +10311,13 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>516</v>
+        <v>1000</v>
       </c>
       <c r="E390" s="3" t="s">
         <v>73</v>
@@ -10331,13 +10331,13 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>516</v>
+        <v>1000</v>
       </c>
       <c r="E391" s="3" t="s">
         <v>73</v>
@@ -10351,13 +10351,13 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>516</v>
+        <v>1000</v>
       </c>
       <c r="E392" s="3" t="s">
         <v>73</v>
@@ -10371,308 +10371,308 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E393" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F393" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G393" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E394" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F394" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G394" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E395" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F395" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G395" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="396" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D396" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F396" s="3" t="s">
         <v>672</v>
-      </c>
-      <c r="E396" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F396" s="3" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="397" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D397" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E397" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F397" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="398" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D398" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E398" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F398" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="399" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D399" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="400" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D400" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E400" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F400" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="401" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D401" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E401" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F401" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="402" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D402" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E402" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F402" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="403" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B403" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="D403" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="D403" s="4" t="s">
-        <v>661</v>
-      </c>
       <c r="E403" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F403" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="404" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D404" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E404" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F404" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="405" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D405" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E405" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F405" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="406" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D406" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E406" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F406" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="407" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D407" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="408" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D408" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E408" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F408" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="409" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C409" s="3">
         <v>0</v>
       </c>
       <c r="D409" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E409" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F409" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D410" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="B410" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D410" s="3" t="s">
-        <v>584</v>
-      </c>
       <c r="E410" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F410" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G410" s="3" t="s">
         <v>133</v>
@@ -10680,47 +10680,47 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>432</v>
       </c>
       <c r="D411" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="E411" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="F411" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="E411" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="F411" s="3" t="s">
+      <c r="G411" s="3" t="s">
         <v>578</v>
-      </c>
-      <c r="G411" s="3" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>432</v>
       </c>
       <c r="D412" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="E412" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="F412" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="E412" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="F412" s="3" t="s">
+      <c r="G412" s="3" t="s">
         <v>578</v>
-      </c>
-      <c r="G412" s="3" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>77</v>
@@ -10729,7 +10729,7 @@
         <v>73</v>
       </c>
       <c r="F413" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G413" s="3" t="s">
         <v>210</v>
@@ -10737,7 +10737,7 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>77</v>
@@ -10746,7 +10746,7 @@
         <v>73</v>
       </c>
       <c r="F414" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G414" s="3" t="s">
         <v>210</v>
@@ -10754,7 +10754,7 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>77</v>
@@ -10763,7 +10763,7 @@
         <v>73</v>
       </c>
       <c r="F415" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G415" s="3" t="s">
         <v>210</v>
@@ -10771,19 +10771,19 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E416" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F416" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G416" s="3" t="s">
         <v>210</v>
@@ -10791,7 +10791,7 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>77</v>
@@ -10800,7 +10800,7 @@
         <v>73</v>
       </c>
       <c r="F417" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G417" s="3" t="s">
         <v>210</v>
@@ -10808,16 +10808,19 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="D418" s="3" t="s">
+        <v>524</v>
+      </c>
       <c r="E418" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F418" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G418" s="3" t="s">
         <v>210</v>
@@ -10825,19 +10828,16 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D419" s="3" t="s">
+      <c r="E419" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F419" s="3" t="s">
         <v>525</v>
-      </c>
-      <c r="E419" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F419" s="3" t="s">
-        <v>526</v>
       </c>
       <c r="G419" s="3" t="s">
         <v>210</v>
@@ -10845,7 +10845,7 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>77</v>
@@ -10854,7 +10854,7 @@
         <v>73</v>
       </c>
       <c r="F420" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G420" s="3" t="s">
         <v>210</v>
@@ -10862,19 +10862,19 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E421" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F421" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G421" s="3" t="s">
         <v>210</v>
@@ -10882,7 +10882,7 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>77</v>
@@ -10891,7 +10891,7 @@
         <v>73</v>
       </c>
       <c r="F422" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G422" s="3" t="s">
         <v>210</v>
@@ -10899,19 +10899,19 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E423" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F423" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G423" s="3" t="s">
         <v>210</v>
@@ -10919,7 +10919,7 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>77</v>
@@ -10928,7 +10928,7 @@
         <v>73</v>
       </c>
       <c r="F424" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G424" s="3" t="s">
         <v>210</v>
@@ -10936,19 +10936,19 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E425" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F425" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G425" s="3" t="s">
         <v>210</v>
@@ -10956,7 +10956,7 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>77</v>
@@ -10965,7 +10965,7 @@
         <v>73</v>
       </c>
       <c r="F426" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G426" s="3" t="s">
         <v>210</v>
@@ -10973,7 +10973,7 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>77</v>
@@ -10982,7 +10982,7 @@
         <v>73</v>
       </c>
       <c r="F427" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G427" s="3" t="s">
         <v>210</v>
@@ -10990,7 +10990,7 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>77</v>
@@ -10999,7 +10999,7 @@
         <v>73</v>
       </c>
       <c r="F428" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G428" s="3" t="s">
         <v>210</v>
@@ -11007,7 +11007,7 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>77</v>
@@ -11016,7 +11016,7 @@
         <v>73</v>
       </c>
       <c r="F429" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G429" s="3" t="s">
         <v>210</v>
@@ -11024,19 +11024,19 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E430" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F430" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G430" s="3" t="s">
         <v>210</v>
@@ -11044,7 +11044,7 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>77</v>
@@ -11053,7 +11053,7 @@
         <v>73</v>
       </c>
       <c r="F431" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G431" s="3" t="s">
         <v>210</v>
@@ -11061,19 +11061,19 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D432" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E432" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F432" s="3" t="s">
         <v>525</v>
-      </c>
-      <c r="E432" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F432" s="3" t="s">
-        <v>526</v>
       </c>
       <c r="G432" s="3" t="s">
         <v>210</v>
@@ -11081,7 +11081,7 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>77</v>
@@ -11090,7 +11090,7 @@
         <v>73</v>
       </c>
       <c r="F433" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G433" s="3" t="s">
         <v>210</v>
@@ -11098,7 +11098,7 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>77</v>
@@ -11107,7 +11107,7 @@
         <v>73</v>
       </c>
       <c r="F434" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G434" s="3" t="s">
         <v>210</v>
@@ -11115,7 +11115,7 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>77</v>
@@ -11124,7 +11124,7 @@
         <v>73</v>
       </c>
       <c r="F435" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G435" s="3" t="s">
         <v>210</v>
@@ -11132,7 +11132,7 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>77</v>
@@ -11141,7 +11141,7 @@
         <v>73</v>
       </c>
       <c r="F436" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G436" s="3" t="s">
         <v>210</v>
@@ -11149,7 +11149,7 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>77</v>
@@ -11158,7 +11158,7 @@
         <v>73</v>
       </c>
       <c r="F437" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G437" s="3" t="s">
         <v>210</v>
@@ -11166,7 +11166,7 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>77</v>
@@ -11175,7 +11175,7 @@
         <v>73</v>
       </c>
       <c r="F438" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G438" s="3" t="s">
         <v>210</v>
@@ -11183,7 +11183,7 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>77</v>
@@ -11192,7 +11192,7 @@
         <v>73</v>
       </c>
       <c r="F439" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G439" s="3" t="s">
         <v>210</v>
@@ -11200,7 +11200,7 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>77</v>
@@ -11209,7 +11209,7 @@
         <v>73</v>
       </c>
       <c r="F440" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G440" s="3" t="s">
         <v>210</v>
@@ -11217,7 +11217,7 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>77</v>
@@ -11226,7 +11226,7 @@
         <v>73</v>
       </c>
       <c r="F441" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G441" s="3" t="s">
         <v>210</v>
@@ -11234,7 +11234,7 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>77</v>
@@ -11243,7 +11243,7 @@
         <v>73</v>
       </c>
       <c r="F442" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G442" s="3" t="s">
         <v>210</v>
@@ -11251,19 +11251,19 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E443" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F443" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G443" s="3" t="s">
         <v>210</v>
@@ -11271,19 +11271,19 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E444" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F444" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G444" s="3" t="s">
         <v>210</v>
@@ -11291,19 +11291,19 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D445" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E445" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F445" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G445" s="3" t="s">
         <v>210</v>
@@ -11311,7 +11311,7 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>77</v>
@@ -11320,7 +11320,7 @@
         <v>73</v>
       </c>
       <c r="F446" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G446" s="3" t="s">
         <v>210</v>
@@ -11328,7 +11328,7 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B447" s="3" t="s">
         <v>77</v>
@@ -11337,7 +11337,7 @@
         <v>73</v>
       </c>
       <c r="F447" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G447" s="3" t="s">
         <v>210</v>
@@ -11345,7 +11345,7 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>77</v>
@@ -11354,7 +11354,7 @@
         <v>73</v>
       </c>
       <c r="F448" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G448" s="3" t="s">
         <v>210</v>
@@ -11362,19 +11362,19 @@
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D449" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E449" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F449" s="3" t="s">
         <v>525</v>
-      </c>
-      <c r="E449" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F449" s="3" t="s">
-        <v>526</v>
       </c>
       <c r="G449" s="3" t="s">
         <v>210</v>
@@ -11382,19 +11382,19 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D450" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E450" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F450" s="3" t="s">
         <v>525</v>
-      </c>
-      <c r="E450" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F450" s="3" t="s">
-        <v>526</v>
       </c>
       <c r="G450" s="3" t="s">
         <v>210</v>
@@ -11402,19 +11402,19 @@
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D451" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E451" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F451" s="3" t="s">
         <v>525</v>
-      </c>
-      <c r="E451" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F451" s="3" t="s">
-        <v>526</v>
       </c>
       <c r="G451" s="3" t="s">
         <v>210</v>
@@ -11422,7 +11422,7 @@
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>77</v>
@@ -11431,7 +11431,7 @@
         <v>73</v>
       </c>
       <c r="F452" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G452" s="3" t="s">
         <v>210</v>
@@ -11439,7 +11439,7 @@
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>77</v>
@@ -11448,7 +11448,7 @@
         <v>73</v>
       </c>
       <c r="F453" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G453" s="3" t="s">
         <v>210</v>
@@ -11456,7 +11456,7 @@
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>77</v>
@@ -11465,7 +11465,7 @@
         <v>73</v>
       </c>
       <c r="F454" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G454" s="3" t="s">
         <v>210</v>
@@ -11473,19 +11473,19 @@
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E455" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F455" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G455" s="3" t="s">
         <v>207</v>
@@ -11493,19 +11493,19 @@
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D456" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E456" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F456" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G456" s="3" t="s">
         <v>207</v>
@@ -11513,7 +11513,7 @@
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>77</v>
@@ -11531,12 +11531,12 @@
         <v>76</v>
       </c>
       <c r="H457" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>77</v>
@@ -11554,12 +11554,12 @@
         <v>76</v>
       </c>
       <c r="H458" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>77</v>
@@ -11577,12 +11577,12 @@
         <v>76</v>
       </c>
       <c r="H459" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>77</v>
@@ -11600,12 +11600,12 @@
         <v>76</v>
       </c>
       <c r="H460" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>77</v>
@@ -11623,12 +11623,12 @@
         <v>76</v>
       </c>
       <c r="H461" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>77</v>
@@ -11646,12 +11646,12 @@
         <v>76</v>
       </c>
       <c r="H462" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>77</v>
@@ -11669,12 +11669,12 @@
         <v>76</v>
       </c>
       <c r="H463" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>77</v>
@@ -11692,12 +11692,12 @@
         <v>76</v>
       </c>
       <c r="H464" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>77</v>
@@ -11715,12 +11715,12 @@
         <v>76</v>
       </c>
       <c r="H465" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>77</v>
@@ -11738,12 +11738,12 @@
         <v>76</v>
       </c>
       <c r="H466" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>77</v>
@@ -11761,12 +11761,12 @@
         <v>76</v>
       </c>
       <c r="H467" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>77</v>
@@ -11784,12 +11784,12 @@
         <v>76</v>
       </c>
       <c r="H468" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>77</v>
@@ -11807,12 +11807,12 @@
         <v>76</v>
       </c>
       <c r="H469" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>77</v>
@@ -11830,12 +11830,12 @@
         <v>76</v>
       </c>
       <c r="H470" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>77</v>
@@ -11853,12 +11853,12 @@
         <v>76</v>
       </c>
       <c r="H471" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>77</v>
@@ -11876,12 +11876,12 @@
         <v>76</v>
       </c>
       <c r="H472" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>77</v>
@@ -11899,12 +11899,12 @@
         <v>76</v>
       </c>
       <c r="H473" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>77</v>
@@ -11922,12 +11922,12 @@
         <v>76</v>
       </c>
       <c r="H474" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>77</v>
@@ -11945,12 +11945,12 @@
         <v>76</v>
       </c>
       <c r="H475" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>77</v>
@@ -11968,12 +11968,12 @@
         <v>76</v>
       </c>
       <c r="H476" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>77</v>
@@ -11991,12 +11991,12 @@
         <v>76</v>
       </c>
       <c r="H477" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>77</v>
@@ -12014,12 +12014,12 @@
         <v>76</v>
       </c>
       <c r="H478" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>77</v>
@@ -12037,12 +12037,12 @@
         <v>76</v>
       </c>
       <c r="H479" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>77</v>
@@ -12060,12 +12060,12 @@
         <v>76</v>
       </c>
       <c r="H480" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>77</v>
@@ -12083,12 +12083,12 @@
         <v>76</v>
       </c>
       <c r="H481" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>77</v>
@@ -12106,12 +12106,12 @@
         <v>76</v>
       </c>
       <c r="H482" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>77</v>
@@ -12129,12 +12129,12 @@
         <v>76</v>
       </c>
       <c r="H483" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>77</v>
@@ -12152,12 +12152,12 @@
         <v>76</v>
       </c>
       <c r="H484" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>77</v>
@@ -12175,18 +12175,18 @@
         <v>76</v>
       </c>
       <c r="H485" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D486" s="3" t="s">
         <v>616</v>
-      </c>
-      <c r="B486" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D486" s="3" t="s">
-        <v>617</v>
       </c>
       <c r="E486" s="3" t="s">
         <v>73</v>
@@ -12198,7 +12198,7 @@
         <v>76</v>
       </c>
       <c r="H486" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
@@ -12343,4324 +12343,4324 @@
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B515" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D515" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E515" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F515" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="G515" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="G515" s="3" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B516" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E516" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F516" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="G516" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="G516" s="3" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B517" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D517" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E517" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F517" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="G517" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="G517" s="3" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D518" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E518" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F518" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="G518" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="G518" s="3" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B519" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D519" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B520" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D520" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B521" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D521" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B522" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D522" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B523" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D523" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B524" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D524" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D525" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B526" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D526" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B527" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D527" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B528" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D528" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D529" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D530" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D531" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B532" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D532" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B533" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D533" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B534" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D534" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B535" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D535" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B536" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D536" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B537" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D537" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B538" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D538" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B539" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D539" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B540" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D540" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B541" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D541" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B542" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D542" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B543" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D543" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B544" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D544" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B545" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D545" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B546" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D546" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B547" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D547" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B548" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D548" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B549" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D549" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B550" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D550" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B551" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D551" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B552" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D552" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B553" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D553" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B554" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D554" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B555" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D555" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B556" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D556" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B557" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D557" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B558" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B559" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D559" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B560" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D560" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B561" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C561" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D561" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B562" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C562" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D562" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B563" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D563" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B564" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D564" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B565" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D565" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B566" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B567" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C567" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D567" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B568" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B569" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C569" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B570" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C570" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B571" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C571" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D571" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B572" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C572" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B573" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C573" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B574" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C574" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D574" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B575" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C575" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D575" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B576" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B577" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D577" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B578" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D578" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B579" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D579" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B580" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D580" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B581" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D581" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B582" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D582" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B583" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D583" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B584" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D584" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B585" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D585" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B586" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D586" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B587" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D587" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B588" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D588" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B589" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D589" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B590" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B591" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D591" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B592" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D592" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B593" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D593" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B594" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D594" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B595" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D595" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B596" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D596" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B597" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D597" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B598" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D598" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D599" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B600" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D600" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B601" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D601" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B602" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D602" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B603" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C603" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D603" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B604" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D604" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B605" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C605" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D605" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B606" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C606" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D606" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B607" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C607" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D607" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B608" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D608" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B609" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C609" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D609" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B610" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C610" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D610" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B611" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C611" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D611" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B612" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C612" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D612" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B613" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C613" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D613" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B614" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C614" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D614" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B615" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C615" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B616" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C616" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D616" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B617" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C617" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D617" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B618" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C618" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D618" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B619" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C619" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D619" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B620" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C620" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D620" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B621" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C621" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D621" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B622" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C622" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D622" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B623" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C623" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D623" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B624" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C624" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D624" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B625" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C625" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D625" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B626" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C626" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D626" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B627" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C627" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D627" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B628" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C628" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D628" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B629" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C629" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D629" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B630" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C630" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D630" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B631" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C631" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D631" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B632" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C632" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D632" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B633" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C633" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D633" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B634" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C634" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D634" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B635" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C635" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B636" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C636" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D636" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B637" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C637" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D637" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B638" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C638" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D638" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B639" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C639" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D639" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B640" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C640" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D640" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B641" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C641" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D641" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B642" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C642" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D642" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B643" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C643" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D643" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B644" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C644" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D644" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B645" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C645" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D645" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B646" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C646" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D646" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B647" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C647" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D647" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B648" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C648" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D648" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B649" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C649" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D649" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B650" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C650" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D650" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B651" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C651" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D651" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B652" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C652" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D652" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B653" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C653" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D653" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B654" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C654" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D654" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B655" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C655" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D655" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B656" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C656" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D656" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B657" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C657" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D657" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B658" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C658" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D658" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B659" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C659" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D659" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B660" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C660" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D660" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B661" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C661" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D661" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B662" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C662" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D662" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B663" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C663" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D663" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B664" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C664" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D664" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B665" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C665" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D665" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B666" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C666" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D666" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B667" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C667" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D667" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B668" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C668" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D668" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B669" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C669" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D669" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B670" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C670" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D670" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B671" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C671" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D671" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B672" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C672" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D672" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B673" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C673" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D673" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B674" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C674" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D674" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B675" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C675" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D675" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B676" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C676" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D676" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B677" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C677" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D677" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B678" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C678" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D678" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B679" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C679" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D679" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B680" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C680" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D680" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B681" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C681" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D681" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B682" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C682" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D682" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B683" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C683" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D683" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B684" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C684" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D684" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B685" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C685" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D685" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B686" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C686" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D686" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B687" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C687" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D687" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B688" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C688" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D688" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B689" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C689" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D689" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B690" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C690" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D690" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B691" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C691" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D691" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B692" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C692" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D692" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B693" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C693" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D693" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B694" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C694" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D694" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B695" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C695" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D695" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B696" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C696" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D696" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B697" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C697" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D697" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B698" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C698" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D698" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B699" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C699" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D699" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B700" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C700" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D700" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B701" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C701" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D701" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B702" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C702" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D702" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B703" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C703" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D703" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B704" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C704" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D704" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B705" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C705" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D705" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B706" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C706" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D706" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B707" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C707" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D707" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B708" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C708" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D708" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B709" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C709" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D709" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B710" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C710" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D710" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B711" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C711" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D711" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B712" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C712" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D712" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B713" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C713" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D713" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B714" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C714" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D714" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B715" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C715" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D715" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B716" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C716" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D716" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B717" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C717" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D717" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B718" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C718" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D718" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B719" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C719" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D719" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B720" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C720" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D720" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B721" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C721" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D721" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B722" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C722" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D722" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B723" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C723" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D723" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B724" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C724" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D724" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B725" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C725" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D725" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B726" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C726" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D726" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B727" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C727" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D727" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B728" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C728" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D728" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B729" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C729" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D729" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B730" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C730" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D730" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B731" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C731" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D731" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B732" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C732" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D732" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B733" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C733" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D733" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B734" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C734" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D734" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B735" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C735" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D735" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B736" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C736" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D736" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B737" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C737" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D737" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B738" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C738" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D738" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B739" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C739" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D739" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B740" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C740" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D740" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B741" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C741" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D741" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B742" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C742" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D742" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B743" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C743" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D743" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B744" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C744" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D744" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B745" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C745" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D745" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B746" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C746" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D746" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B747" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C747" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D747" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B748" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C748" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D748" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B749" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C749" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D749" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B750" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C750" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D750" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B751" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C751" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D751" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B752" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C752" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D752" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B753" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C753" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D753" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B754" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C754" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D754" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B755" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C755" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D755" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A756" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B756" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C756" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D756" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B757" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C757" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D757" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B758" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C758" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D758" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B759" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C759" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D759" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B760" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C760" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D760" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B761" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C761" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D761" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B762" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C762" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D762" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B763" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C763" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D763" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B764" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C764" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D764" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B765" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C765" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D765" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B766" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C766" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D766" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B767" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C767" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D767" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B768" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C768" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D768" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B769" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C769" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D769" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A770" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B770" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C770" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D770" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A771" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B771" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C771" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D771" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A772" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B772" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C772" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D772" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A773" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B773" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C773" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D773" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A774" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B774" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D774" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A775" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B775" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C775" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D775" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A776" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B776" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C776" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D776" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A777" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B777" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C777" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D777" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A778" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B778" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C778" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D778" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A779" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B779" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C779" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D779" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A780" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B780" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C780" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D780" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A781" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B781" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C781" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D781" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A782" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B782" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C782" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D782" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A783" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B783" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C783" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D783" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A784" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B784" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C784" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D784" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A785" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B785" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C785" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D785" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A786" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B786" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C786" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D786" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A787" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B787" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C787" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D787" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B788" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C788" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D788" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A789" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B789" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C789" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D789" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A790" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B790" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C790" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D790" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A791" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B791" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C791" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D791" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A792" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B792" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C792" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D792" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A793" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B793" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C793" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D793" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A794" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B794" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C794" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D794" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A795" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B795" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C795" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D795" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A796" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B796" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C796" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D796" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A797" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B797" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C797" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D797" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A798" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B798" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C798" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D798" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A799" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B799" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C799" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D799" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A800" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B800" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C800" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D800" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A801" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B801" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C801" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D801" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A802" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B802" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C802" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D802" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A803" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B803" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C803" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D803" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A804" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B804" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C804" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D804" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A805" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B805" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C805" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D805" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A806" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B806" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C806" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D806" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A807" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B807" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C807" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D807" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A808" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B808" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C808" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D808" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A809" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B809" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C809" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D809" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A810" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B810" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C810" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D810" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A811" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B811" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C811" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D811" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A812" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B812" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C812" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D812" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A813" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B813" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C813" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D813" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A814" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B814" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C814" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D814" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A815" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B815" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C815" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D815" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A816" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B816" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C816" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D816" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A817" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B817" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C817" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D817" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A818" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B818" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C818" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D818" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A819" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B819" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C819" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D819" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A820" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B820" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C820" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D820" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A821" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B821" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C821" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D821" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
   </sheetData>

--- a/_database/agriculture_land-use_references.xlsx
+++ b/_database/agriculture_land-use_references.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crosnier/Documents/PathwayCalc/_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032F6B0E-3981-DE4B-9C94-F17D78EA7A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175DA1B8-EEDA-144F-9993-EFEC37946422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1160" yWindow="-23500" windowWidth="30240" windowHeight="17440" xr2:uid="{9AF003D9-B152-1B4E-9C13-06A4299E806A}"/>
+    <workbookView xWindow="4720" yWindow="-21100" windowWidth="30240" windowHeight="17440" xr2:uid="{9AF003D9-B152-1B4E-9C13-06A4299E806A}"/>
   </bookViews>
   <sheets>
     <sheet name="references_agriculture" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3655" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3709" uniqueCount="1011">
   <si>
     <t>variables</t>
   </si>
@@ -1753,9 +1753,6 @@
     <t>FAOSTAT Land Use</t>
   </si>
   <si>
-    <t>Item considered : -- Cropland</t>
-  </si>
-  <si>
     <t>Item considered : -- Permanent meadows and pastures</t>
   </si>
   <si>
@@ -3041,6 +3038,39 @@
   </si>
   <si>
     <t>Element used : Production quantity [kt]</t>
+  </si>
+  <si>
+    <t>Element used : Area harvested [ha]</t>
+  </si>
+  <si>
+    <t>cal_agr_lus_land_cropland_cereal[ha]</t>
+  </si>
+  <si>
+    <t>cal_agr_lus_land_cropland_fruit[ha]</t>
+  </si>
+  <si>
+    <t>cal_agr_lus_land_cropland_oilcrop[ha]</t>
+  </si>
+  <si>
+    <t>cal_agr_lus_land_cropland_pulse[ha]</t>
+  </si>
+  <si>
+    <t>cal_agr_lus_land_cropland_rice[ha]</t>
+  </si>
+  <si>
+    <t>cal_agr_lus_land_cropland_starch[ha]</t>
+  </si>
+  <si>
+    <t>cal_agr_lus_land_cropland_sugarcrop[ha]</t>
+  </si>
+  <si>
+    <t>cal_agr_lus_land_cropland_veg[ha]</t>
+  </si>
+  <si>
+    <t>cal_agr_lus_land_cropland_fibres-plant-eq[ha]</t>
+  </si>
+  <si>
+    <t>Item considered : --- Temporary crops</t>
   </si>
 </sst>
 </file>
@@ -3468,11 +3498,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2885EB-2283-C147-98CF-A0905870B32E}">
-  <dimension ref="A1:H821"/>
+  <dimension ref="A1:H830"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A408" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D418" sqref="D418"/>
+      <pane ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D456" sqref="D456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -4324,16 +4354,16 @@
         <v>82</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>671</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4341,16 +4371,16 @@
         <v>83</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4358,16 +4388,16 @@
         <v>84</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4375,10 +4405,10 @@
         <v>85</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4386,16 +4416,16 @@
         <v>86</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4403,16 +4433,16 @@
         <v>87</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4420,16 +4450,16 @@
         <v>88</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4437,16 +4467,16 @@
         <v>89</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>660</v>
-      </c>
       <c r="E46" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4454,16 +4484,16 @@
         <v>90</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -4471,16 +4501,16 @@
         <v>91</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -4488,16 +4518,16 @@
         <v>92</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -4505,10 +4535,10 @@
         <v>93</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="36" x14ac:dyDescent="0.25">
@@ -4516,16 +4546,16 @@
         <v>94</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -4533,19 +4563,19 @@
         <v>95</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C52" s="3">
         <v>0</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -4893,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -4967,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>73</v>
@@ -4990,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -5004,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>73</v>
@@ -7768,7 +7798,7 @@
         <v>77</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -7779,7 +7809,7 @@
         <v>77</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -7790,7 +7820,7 @@
         <v>77</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -7801,7 +7831,7 @@
         <v>77</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -7812,7 +7842,7 @@
         <v>77</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -7823,7 +7853,7 @@
         <v>77</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -7834,7 +7864,7 @@
         <v>77</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -7845,7 +7875,7 @@
         <v>77</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -7856,7 +7886,7 @@
         <v>77</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -7867,7 +7897,7 @@
         <v>77</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -7878,7 +7908,7 @@
         <v>77</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -7889,7 +7919,7 @@
         <v>77</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -7900,7 +7930,7 @@
         <v>77</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -7911,7 +7941,7 @@
         <v>77</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -7922,7 +7952,7 @@
         <v>77</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -7933,7 +7963,7 @@
         <v>77</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -7944,7 +7974,7 @@
         <v>77</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -7955,7 +7985,7 @@
         <v>77</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -7973,10 +8003,10 @@
         <v>319</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -7984,10 +8014,10 @@
         <v>320</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -9815,7 +9845,7 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>77</v>
@@ -9832,7 +9862,7 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>77</v>
@@ -9849,7 +9879,7 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>77</v>
@@ -9866,7 +9896,7 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>77</v>
@@ -9886,7 +9916,7 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>77</v>
@@ -9906,7 +9936,7 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>77</v>
@@ -9926,7 +9956,7 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>77</v>
@@ -9946,7 +9976,7 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>77</v>
@@ -9963,7 +9993,7 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>77</v>
@@ -9980,7 +10010,7 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>77</v>
@@ -9997,7 +10027,7 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>77</v>
@@ -10014,7 +10044,7 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>77</v>
@@ -10031,7 +10061,7 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>77</v>
@@ -10051,7 +10081,7 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>77</v>
@@ -10071,13 +10101,13 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E378" s="3" t="s">
         <v>73</v>
@@ -10091,13 +10121,13 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E379" s="3" t="s">
         <v>73</v>
@@ -10111,13 +10141,13 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E380" s="3" t="s">
         <v>73</v>
@@ -10131,13 +10161,13 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E381" s="3" t="s">
         <v>73</v>
@@ -10151,13 +10181,13 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E382" s="3" t="s">
         <v>73</v>
@@ -10171,13 +10201,13 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E383" s="3" t="s">
         <v>73</v>
@@ -10191,13 +10221,13 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E384" s="3" t="s">
         <v>73</v>
@@ -10211,13 +10241,13 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E385" s="3" t="s">
         <v>73</v>
@@ -10231,13 +10261,13 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E386" s="3" t="s">
         <v>73</v>
@@ -10251,13 +10281,13 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E387" s="3" t="s">
         <v>73</v>
@@ -10271,13 +10301,13 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E388" s="3" t="s">
         <v>73</v>
@@ -10291,13 +10321,13 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E389" s="3" t="s">
         <v>73</v>
@@ -10311,13 +10341,13 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E390" s="3" t="s">
         <v>73</v>
@@ -10331,13 +10361,13 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E391" s="3" t="s">
         <v>73</v>
@@ -10351,13 +10381,13 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E392" s="3" t="s">
         <v>73</v>
@@ -10371,7 +10401,7 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>77</v>
@@ -10391,7 +10421,7 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>77</v>
@@ -10411,7 +10441,7 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>77</v>
@@ -10431,248 +10461,248 @@
     </row>
     <row r="396" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D396" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F396" s="3" t="s">
         <v>671</v>
-      </c>
-      <c r="E396" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F396" s="3" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="397" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D397" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E397" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F397" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="398" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D398" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E398" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F398" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="399" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D399" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="400" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D400" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E400" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F400" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="401" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D401" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E401" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F401" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="402" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D402" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E402" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F402" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="403" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B403" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="D403" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="D403" s="4" t="s">
-        <v>660</v>
-      </c>
       <c r="E403" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F403" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="404" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D404" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E404" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F404" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="405" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D405" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E405" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F405" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="406" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D406" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E406" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F406" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="407" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D407" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="408" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D408" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E408" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F408" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="409" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C409" s="3">
         <v>0</v>
       </c>
       <c r="D409" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E409" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F409" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D410" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="B410" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D410" s="3" t="s">
-        <v>583</v>
-      </c>
       <c r="E410" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F410" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G410" s="3" t="s">
         <v>133</v>
@@ -10680,42 +10710,42 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>432</v>
       </c>
       <c r="D411" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="E411" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="F411" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="E411" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="F411" s="3" t="s">
+      <c r="G411" s="3" t="s">
         <v>577</v>
-      </c>
-      <c r="G411" s="3" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>432</v>
       </c>
       <c r="D412" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="E412" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="F412" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="E412" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="F412" s="3" t="s">
+      <c r="G412" s="3" t="s">
         <v>577</v>
-      </c>
-      <c r="G412" s="3" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
@@ -10868,7 +10898,7 @@
         <v>77</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E421" s="3" t="s">
         <v>73</v>
@@ -10942,7 +10972,7 @@
         <v>77</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E425" s="3" t="s">
         <v>73</v>
@@ -11473,13 +11503,13 @@
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>571</v>
+        <v>1010</v>
       </c>
       <c r="E455" s="3" t="s">
         <v>73</v>
@@ -11493,13 +11523,13 @@
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D456" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E456" s="3" t="s">
         <v>73</v>
@@ -11513,7 +11543,7 @@
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>77</v>
@@ -11531,12 +11561,12 @@
         <v>76</v>
       </c>
       <c r="H457" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>77</v>
@@ -11554,12 +11584,12 @@
         <v>76</v>
       </c>
       <c r="H458" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>77</v>
@@ -11577,12 +11607,12 @@
         <v>76</v>
       </c>
       <c r="H459" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>77</v>
@@ -11600,12 +11630,12 @@
         <v>76</v>
       </c>
       <c r="H460" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>77</v>
@@ -11623,12 +11653,12 @@
         <v>76</v>
       </c>
       <c r="H461" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>77</v>
@@ -11646,12 +11676,12 @@
         <v>76</v>
       </c>
       <c r="H462" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>77</v>
@@ -11669,12 +11699,12 @@
         <v>76</v>
       </c>
       <c r="H463" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>77</v>
@@ -11692,12 +11722,12 @@
         <v>76</v>
       </c>
       <c r="H464" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>77</v>
@@ -11715,12 +11745,12 @@
         <v>76</v>
       </c>
       <c r="H465" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>77</v>
@@ -11738,12 +11768,12 @@
         <v>76</v>
       </c>
       <c r="H466" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>77</v>
@@ -11761,12 +11791,12 @@
         <v>76</v>
       </c>
       <c r="H467" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>77</v>
@@ -11784,12 +11814,12 @@
         <v>76</v>
       </c>
       <c r="H468" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>77</v>
@@ -11807,12 +11837,12 @@
         <v>76</v>
       </c>
       <c r="H469" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>77</v>
@@ -11830,12 +11860,12 @@
         <v>76</v>
       </c>
       <c r="H470" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>77</v>
@@ -11853,12 +11883,12 @@
         <v>76</v>
       </c>
       <c r="H471" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>77</v>
@@ -11876,12 +11906,12 @@
         <v>76</v>
       </c>
       <c r="H472" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>77</v>
@@ -11899,12 +11929,12 @@
         <v>76</v>
       </c>
       <c r="H473" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>77</v>
@@ -11922,12 +11952,12 @@
         <v>76</v>
       </c>
       <c r="H474" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>77</v>
@@ -11945,12 +11975,12 @@
         <v>76</v>
       </c>
       <c r="H475" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>77</v>
@@ -11968,12 +11998,12 @@
         <v>76</v>
       </c>
       <c r="H476" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>77</v>
@@ -11991,12 +12021,12 @@
         <v>76</v>
       </c>
       <c r="H477" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>77</v>
@@ -12014,12 +12044,12 @@
         <v>76</v>
       </c>
       <c r="H478" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>77</v>
@@ -12037,12 +12067,12 @@
         <v>76</v>
       </c>
       <c r="H479" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>77</v>
@@ -12060,12 +12090,12 @@
         <v>76</v>
       </c>
       <c r="H480" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>77</v>
@@ -12083,12 +12113,12 @@
         <v>76</v>
       </c>
       <c r="H481" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>77</v>
@@ -12106,12 +12136,12 @@
         <v>76</v>
       </c>
       <c r="H482" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>77</v>
@@ -12129,12 +12159,12 @@
         <v>76</v>
       </c>
       <c r="H483" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>77</v>
@@ -12152,12 +12182,12 @@
         <v>76</v>
       </c>
       <c r="H484" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>77</v>
@@ -12175,18 +12205,18 @@
         <v>76</v>
       </c>
       <c r="H485" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D486" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="B486" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D486" s="3" t="s">
-        <v>616</v>
       </c>
       <c r="E486" s="3" t="s">
         <v>73</v>
@@ -12198,7 +12228,7 @@
         <v>76</v>
       </c>
       <c r="H486" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
@@ -12343,4324 +12373,4531 @@
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B515" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D515" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E515" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F515" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="G515" s="3" t="s">
         <v>584</v>
-      </c>
-      <c r="G515" s="3" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B516" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E516" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F516" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="G516" s="3" t="s">
         <v>584</v>
-      </c>
-      <c r="G516" s="3" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B517" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D517" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E517" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F517" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="G517" s="3" t="s">
         <v>584</v>
-      </c>
-      <c r="G517" s="3" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D518" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E518" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F518" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="G518" s="3" t="s">
         <v>584</v>
-      </c>
-      <c r="G518" s="3" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B519" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D519" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B520" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D520" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B521" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D521" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B522" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D522" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B523" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D523" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B524" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D524" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D525" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B526" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D526" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B527" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D527" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B528" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D528" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D529" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D530" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D531" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B532" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D532" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B533" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D533" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B534" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D534" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B535" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D535" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B536" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D536" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B537" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D537" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B538" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D538" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B539" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D539" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B540" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D540" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B541" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D541" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B542" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D542" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B543" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D543" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B544" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D544" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B545" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D545" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B546" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D546" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B547" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D547" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B548" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D548" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B549" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D549" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B550" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D550" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B551" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D551" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B552" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D552" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B553" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D553" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B554" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D554" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B555" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D555" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B556" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D556" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B557" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D557" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B558" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B559" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D559" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B560" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D560" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B561" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C561" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D561" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B562" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C562" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D562" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B563" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D563" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B564" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D564" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B565" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D565" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B566" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B567" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C567" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D567" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B568" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B569" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C569" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B570" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C570" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B571" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C571" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D571" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B572" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C572" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B573" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C573" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B574" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C574" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D574" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B575" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C575" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D575" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B576" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B577" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D577" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B578" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D578" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B579" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D579" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B580" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D580" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B581" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D581" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B582" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D582" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B583" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D583" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B584" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D584" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B585" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D585" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B586" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D586" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B587" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D587" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B588" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D588" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B589" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D589" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B590" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B591" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D591" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B592" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D592" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B593" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D593" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B594" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D594" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B595" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D595" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B596" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D596" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B597" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D597" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B598" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D598" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D599" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B600" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D600" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B601" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D601" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B602" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D602" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B603" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C603" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D603" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B604" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D604" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B605" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C605" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D605" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B606" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C606" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D606" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B607" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C607" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D607" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B608" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D608" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B609" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C609" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D609" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B610" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C610" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D610" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B611" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C611" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D611" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B612" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C612" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D612" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B613" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C613" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D613" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B614" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C614" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D614" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B615" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C615" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B616" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C616" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D616" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B617" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C617" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D617" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B618" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C618" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D618" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B619" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C619" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D619" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B620" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C620" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D620" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B621" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C621" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D621" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B622" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C622" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D622" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B623" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C623" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D623" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B624" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C624" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D624" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B625" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C625" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D625" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B626" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C626" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D626" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B627" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C627" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D627" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B628" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C628" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D628" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B629" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C629" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D629" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B630" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C630" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D630" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B631" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C631" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D631" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B632" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C632" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D632" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B633" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C633" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D633" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B634" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C634" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D634" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B635" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C635" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B636" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C636" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D636" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B637" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C637" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D637" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B638" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C638" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D638" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B639" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C639" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D639" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B640" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C640" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D640" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B641" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C641" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D641" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B642" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C642" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D642" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B643" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C643" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D643" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B644" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C644" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D644" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B645" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C645" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D645" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B646" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C646" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D646" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B647" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C647" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D647" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B648" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C648" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D648" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B649" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C649" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D649" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B650" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C650" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D650" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B651" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C651" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D651" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B652" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C652" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D652" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B653" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C653" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D653" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B654" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C654" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D654" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B655" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C655" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D655" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B656" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C656" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D656" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B657" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C657" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D657" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B658" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C658" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D658" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B659" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C659" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D659" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B660" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C660" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D660" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B661" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C661" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D661" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B662" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C662" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D662" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B663" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C663" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D663" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B664" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C664" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D664" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B665" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C665" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D665" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B666" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C666" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D666" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B667" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C667" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D667" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B668" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C668" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D668" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B669" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C669" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D669" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B670" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C670" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D670" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B671" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C671" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D671" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B672" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C672" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D672" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B673" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C673" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D673" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B674" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C674" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D674" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B675" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C675" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D675" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B676" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C676" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D676" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B677" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C677" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D677" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B678" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C678" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D678" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B679" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C679" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D679" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B680" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C680" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D680" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B681" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C681" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D681" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B682" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C682" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D682" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B683" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C683" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D683" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B684" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C684" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D684" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B685" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C685" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D685" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B686" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C686" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D686" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B687" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C687" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D687" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B688" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C688" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D688" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B689" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C689" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D689" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B690" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C690" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D690" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B691" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C691" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D691" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B692" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C692" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D692" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B693" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C693" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D693" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B694" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C694" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D694" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B695" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C695" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D695" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B696" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C696" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D696" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B697" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C697" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D697" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B698" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C698" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D698" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B699" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C699" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D699" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B700" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C700" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D700" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B701" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C701" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D701" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B702" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C702" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D702" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B703" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C703" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D703" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B704" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C704" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D704" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B705" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C705" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D705" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B706" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C706" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D706" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B707" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C707" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D707" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B708" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C708" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D708" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B709" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C709" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D709" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B710" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C710" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D710" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B711" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C711" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D711" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B712" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C712" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D712" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B713" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C713" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D713" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B714" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C714" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D714" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B715" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C715" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D715" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B716" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C716" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D716" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B717" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C717" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D717" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B718" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C718" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D718" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B719" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C719" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D719" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B720" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C720" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D720" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B721" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C721" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D721" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B722" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C722" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D722" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B723" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C723" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D723" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B724" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C724" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D724" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B725" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C725" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D725" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B726" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C726" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D726" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B727" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C727" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D727" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B728" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C728" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D728" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B729" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C729" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D729" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B730" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C730" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D730" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B731" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C731" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D731" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B732" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C732" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D732" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B733" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C733" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D733" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B734" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C734" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D734" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B735" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C735" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D735" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B736" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C736" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D736" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B737" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C737" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D737" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B738" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C738" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D738" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B739" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C739" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D739" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B740" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C740" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D740" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B741" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C741" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D741" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B742" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C742" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D742" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B743" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C743" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D743" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B744" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C744" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D744" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B745" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C745" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D745" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B746" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C746" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D746" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B747" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C747" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D747" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B748" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C748" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D748" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B749" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C749" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D749" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B750" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C750" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D750" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B751" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C751" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D751" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B752" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C752" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D752" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B753" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C753" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D753" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B754" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C754" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D754" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B755" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C755" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D755" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A756" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B756" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C756" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D756" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B757" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C757" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D757" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B758" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C758" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D758" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B759" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C759" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D759" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B760" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C760" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D760" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B761" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C761" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D761" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B762" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C762" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D762" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B763" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C763" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D763" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B764" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C764" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D764" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B765" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C765" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D765" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B766" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C766" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D766" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B767" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C767" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D767" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B768" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C768" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D768" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B769" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C769" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D769" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A770" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B770" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C770" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D770" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A771" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B771" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C771" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D771" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A772" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B772" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C772" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D772" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A773" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B773" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C773" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D773" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A774" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B774" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D774" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A775" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B775" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C775" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D775" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A776" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B776" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C776" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D776" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A777" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B777" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C777" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D777" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A778" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B778" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C778" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D778" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A779" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B779" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C779" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D779" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A780" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B780" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C780" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D780" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A781" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B781" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C781" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D781" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A782" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B782" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C782" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D782" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A783" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B783" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C783" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D783" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A784" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B784" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C784" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D784" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A785" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B785" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C785" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D785" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A786" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B786" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C786" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D786" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A787" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B787" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C787" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D787" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B788" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C788" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D788" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A789" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B789" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C789" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D789" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A790" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B790" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C790" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D790" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A791" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B791" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C791" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D791" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A792" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B792" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C792" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D792" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A793" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B793" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C793" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D793" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A794" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B794" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C794" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D794" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A795" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B795" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C795" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D795" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A796" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B796" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C796" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D796" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A797" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B797" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C797" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D797" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A798" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B798" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C798" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D798" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A799" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B799" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C799" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D799" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A800" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B800" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C800" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D800" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A801" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B801" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C801" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D801" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A802" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B802" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C802" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D802" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A803" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B803" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C803" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D803" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A804" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B804" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C804" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D804" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A805" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B805" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C805" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D805" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A806" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B806" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C806" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D806" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A807" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B807" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C807" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D807" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A808" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B808" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C808" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D808" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A809" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B809" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C809" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D809" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A810" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B810" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C810" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D810" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A811" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B811" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C811" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D811" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A812" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B812" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C812" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D812" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A813" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B813" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C813" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D813" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A814" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B814" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C814" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D814" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A815" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B815" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C815" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D815" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A816" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="B816" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C816" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D816" s="3" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A817" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="B816" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C816" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="D816" s="3" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A817" s="2" t="s">
+      <c r="B817" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C817" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D817" s="3" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A818" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="B817" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C817" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="D817" s="3" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A818" s="2" t="s">
+      <c r="B818" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C818" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D818" s="3" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A819" s="2" t="s">
         <v>994</v>
       </c>
-      <c r="B818" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C818" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="D818" s="3" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A819" s="2" t="s">
+      <c r="B819" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C819" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D819" s="3" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A820" s="2" t="s">
         <v>995</v>
       </c>
-      <c r="B819" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C819" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="D819" s="3" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A820" s="2" t="s">
+      <c r="B820" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C820" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D820" s="3" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A821" s="2" t="s">
         <v>996</v>
       </c>
-      <c r="B820" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C820" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="D820" s="3" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A821" s="2" t="s">
-        <v>997</v>
-      </c>
       <c r="B821" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C821" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D821" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
+      </c>
+    </row>
+    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A822" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B822" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C822" s="3">
+        <v>0</v>
+      </c>
+      <c r="D822" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E822" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F822" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G822" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A823" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B823" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C823" s="3">
+        <v>0</v>
+      </c>
+      <c r="D823" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E823" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F823" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G823" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A824" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B824" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C824" s="3">
+        <v>0</v>
+      </c>
+      <c r="D824" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E824" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F824" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G824" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A825" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B825" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C825" s="3">
+        <v>0</v>
+      </c>
+      <c r="D825" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E825" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F825" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G825" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A826" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B826" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C826" s="3">
+        <v>0</v>
+      </c>
+      <c r="D826" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E826" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F826" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G826" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A827" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B827" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C827" s="3">
+        <v>0</v>
+      </c>
+      <c r="D827" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E827" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F827" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G827" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A828" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B828" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C828" s="3">
+        <v>0</v>
+      </c>
+      <c r="D828" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E828" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F828" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G828" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A829" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B829" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C829" s="3">
+        <v>0</v>
+      </c>
+      <c r="D829" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E829" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F829" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G829" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A830" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B830" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C830" s="3">
+        <v>0</v>
+      </c>
+      <c r="D830" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E830" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F830" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G830" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
